--- a/Code/Results/Cases/Case_3_192/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_192/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.015894098134967</v>
+        <v>1.039267397319292</v>
       </c>
       <c r="D2">
-        <v>1.035785541213312</v>
+        <v>1.048778010473266</v>
       </c>
       <c r="E2">
-        <v>1.030671983300815</v>
+        <v>1.048348900972594</v>
       </c>
       <c r="F2">
-        <v>1.042709654723021</v>
+        <v>1.060497880972812</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051048139616825</v>
+        <v>1.042597308965509</v>
       </c>
       <c r="J2">
-        <v>1.037609593883308</v>
+        <v>1.044360338277985</v>
       </c>
       <c r="K2">
-        <v>1.046767861070569</v>
+        <v>1.051536907729423</v>
       </c>
       <c r="L2">
-        <v>1.04171992755957</v>
+        <v>1.051108994982577</v>
       </c>
       <c r="M2">
-        <v>1.05360439402451</v>
+        <v>1.063224497929034</v>
       </c>
       <c r="N2">
-        <v>1.01634870681333</v>
+        <v>1.018711862520257</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019470030622338</v>
+        <v>1.040038008623571</v>
       </c>
       <c r="D3">
-        <v>1.038480310849487</v>
+        <v>1.049386347405405</v>
       </c>
       <c r="E3">
-        <v>1.033576414827773</v>
+        <v>1.049023903717047</v>
       </c>
       <c r="F3">
-        <v>1.045851761822573</v>
+        <v>1.061228715480298</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052017399133136</v>
+        <v>1.042766518807142</v>
       </c>
       <c r="J3">
-        <v>1.039443637214262</v>
+        <v>1.044776980446705</v>
       </c>
       <c r="K3">
-        <v>1.048643410781019</v>
+        <v>1.051957885441533</v>
       </c>
       <c r="L3">
-        <v>1.043796974219698</v>
+        <v>1.051596379904423</v>
       </c>
       <c r="M3">
-        <v>1.05592974113344</v>
+        <v>1.063769980673741</v>
       </c>
       <c r="N3">
-        <v>1.016965459980584</v>
+        <v>1.018851179828088</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021745285380145</v>
+        <v>1.040537460522552</v>
       </c>
       <c r="D4">
-        <v>1.040197994067943</v>
+        <v>1.049780710038204</v>
       </c>
       <c r="E4">
-        <v>1.035429884047663</v>
+        <v>1.049461767109275</v>
       </c>
       <c r="F4">
-        <v>1.047856335748387</v>
+        <v>1.061702747231142</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052626755467501</v>
+        <v>1.042875262405833</v>
       </c>
       <c r="J4">
-        <v>1.040608639525353</v>
+        <v>1.045046688904985</v>
       </c>
       <c r="K4">
-        <v>1.049834314086379</v>
+        <v>1.052230317099569</v>
       </c>
       <c r="L4">
-        <v>1.045118709816769</v>
+        <v>1.051912158373729</v>
       </c>
       <c r="M4">
-        <v>1.05740954921443</v>
+        <v>1.064123404093753</v>
       </c>
       <c r="N4">
-        <v>1.017357131484043</v>
+        <v>1.018941335890041</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022692816102398</v>
+        <v>1.040747623177223</v>
       </c>
       <c r="D5">
-        <v>1.040914029213653</v>
+        <v>1.049946672341823</v>
       </c>
       <c r="E5">
-        <v>1.03620304472332</v>
+        <v>1.049646104083767</v>
       </c>
       <c r="F5">
-        <v>1.048692393850515</v>
+        <v>1.061902299170968</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052878730182208</v>
+        <v>1.042920798694263</v>
       </c>
       <c r="J5">
-        <v>1.041093315778342</v>
+        <v>1.045160100026729</v>
       </c>
       <c r="K5">
-        <v>1.050329648955785</v>
+        <v>1.052344853286411</v>
       </c>
       <c r="L5">
-        <v>1.045669163103198</v>
+        <v>1.05204500767752</v>
       </c>
       <c r="M5">
-        <v>1.058025848352019</v>
+        <v>1.064272091534671</v>
       </c>
       <c r="N5">
-        <v>1.017520053861211</v>
+        <v>1.018979239017938</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.022851391022473</v>
+        <v>1.040782921675623</v>
       </c>
       <c r="D6">
-        <v>1.041033902421579</v>
+        <v>1.049974548184999</v>
       </c>
       <c r="E6">
-        <v>1.036332512316714</v>
+        <v>1.049677070211708</v>
       </c>
       <c r="F6">
-        <v>1.048832385896352</v>
+        <v>1.061935820528361</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052920793540337</v>
+        <v>1.042928433886748</v>
       </c>
       <c r="J6">
-        <v>1.041174399806744</v>
+        <v>1.045179143718789</v>
       </c>
       <c r="K6">
-        <v>1.050412509082736</v>
+        <v>1.05236408471995</v>
       </c>
       <c r="L6">
-        <v>1.045761284936853</v>
+        <v>1.052067319245164</v>
       </c>
       <c r="M6">
-        <v>1.058128990729723</v>
+        <v>1.064297063104962</v>
       </c>
       <c r="N6">
-        <v>1.017547308487749</v>
+        <v>1.01898560319436</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021757981307353</v>
+        <v>1.040540267970079</v>
       </c>
       <c r="D7">
-        <v>1.040207585456398</v>
+        <v>1.049782926960338</v>
       </c>
       <c r="E7">
-        <v>1.035440238572918</v>
+        <v>1.049464229213095</v>
       </c>
       <c r="F7">
-        <v>1.047867533154464</v>
+        <v>1.061705412599794</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052630138776092</v>
+        <v>1.042875871570352</v>
       </c>
       <c r="J7">
-        <v>1.040615135645781</v>
+        <v>1.045048204210766</v>
       </c>
       <c r="K7">
-        <v>1.04984095353359</v>
+        <v>1.052231847516317</v>
       </c>
       <c r="L7">
-        <v>1.045126085289762</v>
+        <v>1.051913933137287</v>
       </c>
       <c r="M7">
-        <v>1.057417806893819</v>
+        <v>1.064125390439583</v>
       </c>
       <c r="N7">
-        <v>1.017359315234604</v>
+        <v>1.018941842348153</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017110754519426</v>
+        <v>1.039527659092206</v>
       </c>
       <c r="D8">
-        <v>1.036701728606447</v>
+        <v>1.04898344884394</v>
       </c>
       <c r="E8">
-        <v>1.031659009367941</v>
+        <v>1.048576794051492</v>
       </c>
       <c r="F8">
-        <v>1.043777570808853</v>
+        <v>1.060744633984502</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051379436414851</v>
+        <v>1.042654648300196</v>
       </c>
       <c r="J8">
-        <v>1.038233991032559</v>
+        <v>1.04450112019038</v>
       </c>
       <c r="K8">
-        <v>1.047406482780621</v>
+        <v>1.051679171820807</v>
       </c>
       <c r="L8">
-        <v>1.042426558201243</v>
+        <v>1.051273623591821</v>
       </c>
       <c r="M8">
-        <v>1.054395484332765</v>
+        <v>1.063408750132024</v>
       </c>
       <c r="N8">
-        <v>1.016558698515619</v>
+        <v>1.018758943405266</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008613952709588</v>
+        <v>1.037749642357052</v>
       </c>
       <c r="D9">
-        <v>1.03031778845271</v>
+        <v>1.047580330962424</v>
       </c>
       <c r="E9">
-        <v>1.024790187584811</v>
+        <v>1.047021472128055</v>
       </c>
       <c r="F9">
-        <v>1.036343377758854</v>
+        <v>1.059060395462871</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049035904809425</v>
+        <v>1.042259143400126</v>
       </c>
       <c r="J9">
-        <v>1.033866154517957</v>
+        <v>1.043538016255707</v>
       </c>
       <c r="K9">
-        <v>1.042937411886427</v>
+        <v>1.050705589273615</v>
       </c>
       <c r="L9">
-        <v>1.037493469423096</v>
+        <v>1.050148510704375</v>
       </c>
       <c r="M9">
-        <v>1.048873098023117</v>
+        <v>1.062149537855126</v>
       </c>
       <c r="N9">
-        <v>1.015089411545752</v>
+        <v>1.018436739041297</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.002724828374683</v>
+        <v>1.036568673408371</v>
       </c>
       <c r="D10">
-        <v>1.02591308919684</v>
+        <v>1.046648848754015</v>
       </c>
       <c r="E10">
-        <v>1.020061658633586</v>
+        <v>1.045990399300621</v>
       </c>
       <c r="F10">
-        <v>1.031222474443479</v>
+        <v>1.057943604562121</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047375041344768</v>
+        <v>1.04199170240934</v>
       </c>
       <c r="J10">
-        <v>1.030830752832079</v>
+        <v>1.042896654404075</v>
       </c>
       <c r="K10">
-        <v>1.039829723111127</v>
+        <v>1.050056826772403</v>
       </c>
       <c r="L10">
-        <v>1.034077900804416</v>
+        <v>1.04940067903067</v>
       </c>
       <c r="M10">
-        <v>1.045049987472792</v>
+        <v>1.061312590707715</v>
       </c>
       <c r="N10">
-        <v>1.014067991128625</v>
+        <v>1.018222024688316</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000117332729082</v>
+        <v>1.036058364071075</v>
       </c>
       <c r="D11">
-        <v>1.023968146739041</v>
+        <v>1.046246464475223</v>
       </c>
       <c r="E11">
-        <v>1.017976167417252</v>
+        <v>1.045545337776615</v>
       </c>
       <c r="F11">
-        <v>1.02896315340927</v>
+        <v>1.057461481659481</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046631409332868</v>
+        <v>1.041875013390717</v>
       </c>
       <c r="J11">
-        <v>1.029485231337111</v>
+        <v>1.042619123156066</v>
       </c>
       <c r="K11">
-        <v>1.038451784716672</v>
+        <v>1.04977599373584</v>
       </c>
       <c r="L11">
-        <v>1.032566859363748</v>
+        <v>1.049077412170721</v>
       </c>
       <c r="M11">
-        <v>1.043358784024311</v>
+        <v>1.060950805744179</v>
       </c>
       <c r="N11">
-        <v>1.013615161644523</v>
+        <v>1.018129078394088</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9991397830360119</v>
+        <v>1.035868973484289</v>
       </c>
       <c r="D12">
-        <v>1.023239833868853</v>
+        <v>1.046097146417785</v>
       </c>
       <c r="E12">
-        <v>1.017195582163959</v>
+        <v>1.045380234603417</v>
       </c>
       <c r="F12">
-        <v>1.028117386356497</v>
+        <v>1.057282620667436</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046351416498208</v>
+        <v>1.041831537714805</v>
       </c>
       <c r="J12">
-        <v>1.028980593459727</v>
+        <v>1.042516064577004</v>
       </c>
       <c r="K12">
-        <v>1.037934940150536</v>
+        <v>1.049671694209858</v>
       </c>
       <c r="L12">
-        <v>1.032000594070398</v>
+        <v>1.048957420635259</v>
       </c>
       <c r="M12">
-        <v>1.042725024748967</v>
+        <v>1.060816517512835</v>
       </c>
       <c r="N12">
-        <v>1.01344532127902</v>
+        <v>1.018094558492834</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.999349884730225</v>
+        <v>1.035909591088219</v>
       </c>
       <c r="D13">
-        <v>1.023396328841524</v>
+        <v>1.046129169035514</v>
       </c>
       <c r="E13">
-        <v>1.017363293022667</v>
+        <v>1.045415640143688</v>
       </c>
       <c r="F13">
-        <v>1.028299107089556</v>
+        <v>1.057320976922828</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046411648373329</v>
+        <v>1.041840869362929</v>
       </c>
       <c r="J13">
-        <v>1.029089062320278</v>
+        <v>1.042538169661903</v>
       </c>
       <c r="K13">
-        <v>1.03804603484581</v>
+        <v>1.049694066137403</v>
       </c>
       <c r="L13">
-        <v>1.032122288988282</v>
+        <v>1.048983155391442</v>
       </c>
       <c r="M13">
-        <v>1.042861223632682</v>
+        <v>1.060845318473939</v>
       </c>
       <c r="N13">
-        <v>1.013481827706071</v>
+        <v>1.018101962917289</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000036714206091</v>
+        <v>1.036042705689312</v>
       </c>
       <c r="D14">
-        <v>1.023908065284025</v>
+        <v>1.046234118820166</v>
       </c>
       <c r="E14">
-        <v>1.017911766564546</v>
+        <v>1.045531685949386</v>
       </c>
       <c r="F14">
-        <v>1.028893377266242</v>
+        <v>1.057446692433886</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046608342632074</v>
+        <v>1.041871422369398</v>
       </c>
       <c r="J14">
-        <v>1.029443617778713</v>
+        <v>1.042610603704233</v>
       </c>
       <c r="K14">
-        <v>1.038409165515195</v>
+        <v>1.049767372002506</v>
       </c>
       <c r="L14">
-        <v>1.032520154699662</v>
+        <v>1.049067491906337</v>
       </c>
       <c r="M14">
-        <v>1.043306512103811</v>
+        <v>1.060939703492168</v>
       </c>
       <c r="N14">
-        <v>1.013601156354735</v>
+        <v>1.018126224873672</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000458687058202</v>
+        <v>1.036124743387334</v>
       </c>
       <c r="D15">
-        <v>1.02422257797694</v>
+        <v>1.046298801173334</v>
       </c>
       <c r="E15">
-        <v>1.018248904888081</v>
+        <v>1.045603213823024</v>
       </c>
       <c r="F15">
-        <v>1.029258650373983</v>
+        <v>1.057524179253253</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046729029216616</v>
+        <v>1.04189022959488</v>
       </c>
       <c r="J15">
-        <v>1.029661423088488</v>
+        <v>1.042655236578739</v>
       </c>
       <c r="K15">
-        <v>1.038632232416301</v>
+        <v>1.04981254011521</v>
       </c>
       <c r="L15">
-        <v>1.0327646252445</v>
+        <v>1.049119465619555</v>
       </c>
       <c r="M15">
-        <v>1.043580124764837</v>
+        <v>1.060997869836293</v>
       </c>
       <c r="N15">
-        <v>1.013674459763897</v>
+        <v>1.018141174076335</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.002896636874944</v>
+        <v>1.036602563426021</v>
       </c>
       <c r="D16">
-        <v>1.026041356758384</v>
+        <v>1.046675573945551</v>
       </c>
       <c r="E16">
-        <v>1.020199245603247</v>
+        <v>1.046019966247435</v>
       </c>
       <c r="F16">
-        <v>1.031371513174821</v>
+        <v>1.057975632324299</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047423869932052</v>
+        <v>1.04199942809351</v>
       </c>
       <c r="J16">
-        <v>1.030919379749195</v>
+        <v>1.042915077210483</v>
       </c>
       <c r="K16">
-        <v>1.039920478088221</v>
+        <v>1.05007546666675</v>
       </c>
       <c r="L16">
-        <v>1.034177492822702</v>
+        <v>1.04942214490007</v>
       </c>
       <c r="M16">
-        <v>1.045161456838481</v>
+        <v>1.06133661437813</v>
       </c>
       <c r="N16">
-        <v>1.014097817100006</v>
+        <v>1.018228193829072</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.004410253722387</v>
+        <v>1.03690257203166</v>
       </c>
       <c r="D17">
-        <v>1.027171993254802</v>
+        <v>1.046912170359828</v>
       </c>
       <c r="E17">
-        <v>1.021412307766742</v>
+        <v>1.046281760347851</v>
       </c>
       <c r="F17">
-        <v>1.032685453064832</v>
+        <v>1.058259208082637</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047853106370545</v>
+        <v>1.04206768898971</v>
       </c>
       <c r="J17">
-        <v>1.031700001028322</v>
+        <v>1.043078118295617</v>
       </c>
       <c r="K17">
-        <v>1.04071980144859</v>
+        <v>1.050240417497093</v>
       </c>
       <c r="L17">
-        <v>1.035055036368483</v>
+        <v>1.049612155822367</v>
       </c>
       <c r="M17">
-        <v>1.046143671763963</v>
+        <v>1.061549266832735</v>
       </c>
       <c r="N17">
-        <v>1.014360516334677</v>
+        <v>1.018282786465549</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005287602603648</v>
+        <v>1.037077663919475</v>
       </c>
       <c r="D18">
-        <v>1.027827853931401</v>
+        <v>1.047050264919352</v>
       </c>
       <c r="E18">
-        <v>1.022116215444531</v>
+        <v>1.046434595332744</v>
       </c>
       <c r="F18">
-        <v>1.033447823544246</v>
+        <v>1.058424753247759</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048101118936647</v>
+        <v>1.042107418940889</v>
       </c>
       <c r="J18">
-        <v>1.032152328298919</v>
+        <v>1.043173234930247</v>
       </c>
       <c r="K18">
-        <v>1.041182929487345</v>
+        <v>1.050336638663314</v>
       </c>
       <c r="L18">
-        <v>1.035563810110955</v>
+        <v>1.04972303885622</v>
       </c>
       <c r="M18">
-        <v>1.046713143483861</v>
+        <v>1.06167336297993</v>
       </c>
       <c r="N18">
-        <v>1.014512730489405</v>
+        <v>1.018314631942846</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.005585831013067</v>
+        <v>1.037137382956986</v>
       </c>
       <c r="D19">
-        <v>1.028050877703482</v>
+        <v>1.047097367114864</v>
       </c>
       <c r="E19">
-        <v>1.022355617332682</v>
+        <v>1.046486730930374</v>
       </c>
       <c r="F19">
-        <v>1.033707096402652</v>
+        <v>1.058481223584189</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04818528848876</v>
+        <v>1.04212095130436</v>
       </c>
       <c r="J19">
-        <v>1.032306057010674</v>
+        <v>1.04320567017387</v>
       </c>
       <c r="K19">
-        <v>1.041340322630804</v>
+        <v>1.050369448927943</v>
       </c>
       <c r="L19">
-        <v>1.035736771210936</v>
+        <v>1.049760856023711</v>
       </c>
       <c r="M19">
-        <v>1.04690674135865</v>
+        <v>1.061715686606263</v>
       </c>
       <c r="N19">
-        <v>1.01456446122754</v>
+        <v>1.018325490838616</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.004248430390464</v>
+        <v>1.036870373388088</v>
       </c>
       <c r="D20">
-        <v>1.027051062653486</v>
+        <v>1.046886776285589</v>
       </c>
       <c r="E20">
-        <v>1.02128253694598</v>
+        <v>1.046253658347781</v>
       </c>
       <c r="F20">
-        <v>1.032544898227475</v>
+        <v>1.058228768566753</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047807297524903</v>
+        <v>1.042060374076647</v>
       </c>
       <c r="J20">
-        <v>1.031616558821431</v>
+        <v>1.043060623706795</v>
       </c>
       <c r="K20">
-        <v>1.040634363825426</v>
+        <v>1.05022271898129</v>
       </c>
       <c r="L20">
-        <v>1.034961204352808</v>
+        <v>1.049591763967304</v>
       </c>
       <c r="M20">
-        <v>1.046038646359784</v>
+        <v>1.061526445062024</v>
       </c>
       <c r="N20">
-        <v>1.014332436447963</v>
+        <v>1.018276928928324</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9998347118766047</v>
+        <v>1.036003502295453</v>
       </c>
       <c r="D21">
-        <v>1.023757535595422</v>
+        <v>1.046203209694327</v>
       </c>
       <c r="E21">
-        <v>1.017750420686854</v>
+        <v>1.045497507468578</v>
       </c>
       <c r="F21">
-        <v>1.028718562554435</v>
+        <v>1.05740966623204</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04655052609796</v>
+        <v>1.041862428912631</v>
       </c>
       <c r="J21">
-        <v>1.02933934534458</v>
+        <v>1.042589272875251</v>
       </c>
       <c r="K21">
-        <v>1.038302372449069</v>
+        <v>1.049745784843378</v>
       </c>
       <c r="L21">
-        <v>1.032403132585669</v>
+        <v>1.049042654567912</v>
       </c>
       <c r="M21">
-        <v>1.043175541164261</v>
+        <v>1.060911906824536</v>
       </c>
       <c r="N21">
-        <v>1.013566062748655</v>
+        <v>1.018119080204097</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9970073036102495</v>
+        <v>1.035459398685597</v>
       </c>
       <c r="D22">
-        <v>1.021652661966611</v>
+        <v>1.045774266408736</v>
       </c>
       <c r="E22">
-        <v>1.015495143878856</v>
+        <v>1.045023315898947</v>
       </c>
       <c r="F22">
-        <v>1.026274735457689</v>
+        <v>1.056895943414981</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045738451509509</v>
+        <v>1.041737208596648</v>
       </c>
       <c r="J22">
-        <v>1.027879413330511</v>
+        <v>1.042293083722835</v>
       </c>
       <c r="K22">
-        <v>1.03680704241927</v>
+        <v>1.049446001309123</v>
       </c>
       <c r="L22">
-        <v>1.030765764300846</v>
+        <v>1.048697895495111</v>
       </c>
       <c r="M22">
-        <v>1.041343056514058</v>
+        <v>1.060526071721017</v>
       </c>
       <c r="N22">
-        <v>1.013074699374716</v>
+        <v>1.018019860685205</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.998511257153346</v>
+        <v>1.035747749208238</v>
       </c>
       <c r="D23">
-        <v>1.022771801978278</v>
+        <v>1.0460015768321</v>
       </c>
       <c r="E23">
-        <v>1.016694058562634</v>
+        <v>1.045274576455647</v>
       </c>
       <c r="F23">
-        <v>1.027573950028886</v>
+        <v>1.057168155555972</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046171057129195</v>
+        <v>1.04180366242861</v>
       </c>
       <c r="J23">
-        <v>1.028656078264291</v>
+        <v>1.042450082808333</v>
       </c>
       <c r="K23">
-        <v>1.037602562471911</v>
+        <v>1.049604913768463</v>
       </c>
       <c r="L23">
-        <v>1.031636575489758</v>
+        <v>1.048880612010956</v>
       </c>
       <c r="M23">
-        <v>1.042317624723346</v>
+        <v>1.060730557503764</v>
       </c>
       <c r="N23">
-        <v>1.013336101188314</v>
+        <v>1.018072456169228</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.004321568414771</v>
+        <v>1.036884922254434</v>
       </c>
       <c r="D24">
-        <v>1.027105717160312</v>
+        <v>1.046898250491078</v>
       </c>
       <c r="E24">
-        <v>1.021341186060509</v>
+        <v>1.046266356015413</v>
       </c>
       <c r="F24">
-        <v>1.032608421339753</v>
+        <v>1.058242522440784</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047828003837331</v>
+        <v>1.042063679635208</v>
       </c>
       <c r="J24">
-        <v>1.03165427200947</v>
+        <v>1.043068528704475</v>
       </c>
       <c r="K24">
-        <v>1.040672978989626</v>
+        <v>1.050230716153823</v>
       </c>
       <c r="L24">
-        <v>1.03500361251535</v>
+        <v>1.049600978005694</v>
       </c>
       <c r="M24">
-        <v>1.046086113428741</v>
+        <v>1.061536757054057</v>
       </c>
       <c r="N24">
-        <v>1.014345127669401</v>
+        <v>1.018279575689557</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010848818115546</v>
+        <v>1.038208539871805</v>
       </c>
       <c r="D25">
-        <v>1.031993635768113</v>
+        <v>1.047942386781917</v>
       </c>
       <c r="E25">
-        <v>1.026591427863354</v>
+        <v>1.047422545534639</v>
       </c>
       <c r="F25">
-        <v>1.038293420615247</v>
+        <v>1.059494757634907</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049658773481345</v>
+        <v>1.042362059141707</v>
       </c>
       <c r="J25">
-        <v>1.035016512158848</v>
+        <v>1.04378688312838</v>
       </c>
       <c r="K25">
-        <v>1.044114793603111</v>
+        <v>1.050957238654911</v>
       </c>
       <c r="L25">
-        <v>1.038790508532387</v>
+        <v>1.050438990922091</v>
       </c>
       <c r="M25">
-        <v>1.05032500321286</v>
+        <v>1.062474636758461</v>
       </c>
       <c r="N25">
-        <v>1.015476446109663</v>
+        <v>1.018520023185612</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_192/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_192/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039267397319292</v>
+        <v>1.015894098134967</v>
       </c>
       <c r="D2">
-        <v>1.048778010473266</v>
+        <v>1.035785541213311</v>
       </c>
       <c r="E2">
-        <v>1.048348900972594</v>
+        <v>1.030671983300814</v>
       </c>
       <c r="F2">
-        <v>1.060497880972812</v>
+        <v>1.04270965472302</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042597308965509</v>
+        <v>1.051048139616825</v>
       </c>
       <c r="J2">
-        <v>1.044360338277985</v>
+        <v>1.037609593883308</v>
       </c>
       <c r="K2">
-        <v>1.051536907729423</v>
+        <v>1.046767861070568</v>
       </c>
       <c r="L2">
-        <v>1.051108994982577</v>
+        <v>1.04171992755957</v>
       </c>
       <c r="M2">
-        <v>1.063224497929034</v>
+        <v>1.053604394024509</v>
       </c>
       <c r="N2">
-        <v>1.018711862520257</v>
+        <v>1.01634870681333</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040038008623571</v>
+        <v>1.019470030622338</v>
       </c>
       <c r="D3">
-        <v>1.049386347405405</v>
+        <v>1.038480310849487</v>
       </c>
       <c r="E3">
-        <v>1.049023903717047</v>
+        <v>1.033576414827772</v>
       </c>
       <c r="F3">
-        <v>1.061228715480298</v>
+        <v>1.045851761822572</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042766518807142</v>
+        <v>1.052017399133136</v>
       </c>
       <c r="J3">
-        <v>1.044776980446705</v>
+        <v>1.039443637214262</v>
       </c>
       <c r="K3">
-        <v>1.051957885441533</v>
+        <v>1.048643410781019</v>
       </c>
       <c r="L3">
-        <v>1.051596379904423</v>
+        <v>1.043796974219698</v>
       </c>
       <c r="M3">
-        <v>1.063769980673741</v>
+        <v>1.05592974113344</v>
       </c>
       <c r="N3">
-        <v>1.018851179828088</v>
+        <v>1.016965459980584</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040537460522552</v>
+        <v>1.021745285380146</v>
       </c>
       <c r="D4">
-        <v>1.049780710038204</v>
+        <v>1.040197994067943</v>
       </c>
       <c r="E4">
-        <v>1.049461767109275</v>
+        <v>1.035429884047663</v>
       </c>
       <c r="F4">
-        <v>1.061702747231142</v>
+        <v>1.047856335748388</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042875262405833</v>
+        <v>1.052626755467502</v>
       </c>
       <c r="J4">
-        <v>1.045046688904985</v>
+        <v>1.040608639525354</v>
       </c>
       <c r="K4">
-        <v>1.052230317099569</v>
+        <v>1.04983431408638</v>
       </c>
       <c r="L4">
-        <v>1.051912158373729</v>
+        <v>1.04511870981677</v>
       </c>
       <c r="M4">
-        <v>1.064123404093753</v>
+        <v>1.057409549214431</v>
       </c>
       <c r="N4">
-        <v>1.018941335890041</v>
+        <v>1.017357131484044</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040747623177223</v>
+        <v>1.022692816102398</v>
       </c>
       <c r="D5">
-        <v>1.049946672341823</v>
+        <v>1.040914029213654</v>
       </c>
       <c r="E5">
-        <v>1.049646104083767</v>
+        <v>1.036203044723321</v>
       </c>
       <c r="F5">
-        <v>1.061902299170968</v>
+        <v>1.048692393850516</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042920798694263</v>
+        <v>1.052878730182208</v>
       </c>
       <c r="J5">
-        <v>1.045160100026729</v>
+        <v>1.041093315778342</v>
       </c>
       <c r="K5">
-        <v>1.052344853286411</v>
+        <v>1.050329648955785</v>
       </c>
       <c r="L5">
-        <v>1.05204500767752</v>
+        <v>1.045669163103198</v>
       </c>
       <c r="M5">
-        <v>1.064272091534671</v>
+        <v>1.05802584835202</v>
       </c>
       <c r="N5">
-        <v>1.018979239017938</v>
+        <v>1.017520053861212</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040782921675623</v>
+        <v>1.022851391022472</v>
       </c>
       <c r="D6">
-        <v>1.049974548184999</v>
+        <v>1.041033902421579</v>
       </c>
       <c r="E6">
-        <v>1.049677070211708</v>
+        <v>1.036332512316713</v>
       </c>
       <c r="F6">
-        <v>1.061935820528361</v>
+        <v>1.048832385896351</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042928433886748</v>
+        <v>1.052920793540336</v>
       </c>
       <c r="J6">
-        <v>1.045179143718789</v>
+        <v>1.041174399806743</v>
       </c>
       <c r="K6">
-        <v>1.05236408471995</v>
+        <v>1.050412509082735</v>
       </c>
       <c r="L6">
-        <v>1.052067319245164</v>
+        <v>1.045761284936852</v>
       </c>
       <c r="M6">
-        <v>1.064297063104962</v>
+        <v>1.058128990729722</v>
       </c>
       <c r="N6">
-        <v>1.01898560319436</v>
+        <v>1.017547308487749</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040540267970079</v>
+        <v>1.021757981307353</v>
       </c>
       <c r="D7">
-        <v>1.049782926960338</v>
+        <v>1.040207585456398</v>
       </c>
       <c r="E7">
-        <v>1.049464229213095</v>
+        <v>1.035440238572917</v>
       </c>
       <c r="F7">
-        <v>1.061705412599794</v>
+        <v>1.047867533154464</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042875871570352</v>
+        <v>1.052630138776092</v>
       </c>
       <c r="J7">
-        <v>1.045048204210766</v>
+        <v>1.040615135645781</v>
       </c>
       <c r="K7">
-        <v>1.052231847516317</v>
+        <v>1.04984095353359</v>
       </c>
       <c r="L7">
-        <v>1.051913933137287</v>
+        <v>1.045126085289762</v>
       </c>
       <c r="M7">
-        <v>1.064125390439583</v>
+        <v>1.057417806893819</v>
       </c>
       <c r="N7">
-        <v>1.018941842348153</v>
+        <v>1.017359315234604</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039527659092206</v>
+        <v>1.017110754519425</v>
       </c>
       <c r="D8">
-        <v>1.04898344884394</v>
+        <v>1.036701728606447</v>
       </c>
       <c r="E8">
-        <v>1.048576794051492</v>
+        <v>1.031659009367941</v>
       </c>
       <c r="F8">
-        <v>1.060744633984502</v>
+        <v>1.043777570808853</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042654648300196</v>
+        <v>1.051379436414851</v>
       </c>
       <c r="J8">
-        <v>1.04450112019038</v>
+        <v>1.038233991032558</v>
       </c>
       <c r="K8">
-        <v>1.051679171820807</v>
+        <v>1.04740648278062</v>
       </c>
       <c r="L8">
-        <v>1.051273623591821</v>
+        <v>1.042426558201243</v>
       </c>
       <c r="M8">
-        <v>1.063408750132024</v>
+        <v>1.054395484332765</v>
       </c>
       <c r="N8">
-        <v>1.018758943405266</v>
+        <v>1.016558698515618</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037749642357052</v>
+        <v>1.008613952709588</v>
       </c>
       <c r="D9">
-        <v>1.047580330962424</v>
+        <v>1.03031778845271</v>
       </c>
       <c r="E9">
-        <v>1.047021472128055</v>
+        <v>1.024790187584811</v>
       </c>
       <c r="F9">
-        <v>1.059060395462871</v>
+        <v>1.036343377758854</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042259143400126</v>
+        <v>1.049035904809425</v>
       </c>
       <c r="J9">
-        <v>1.043538016255707</v>
+        <v>1.033866154517958</v>
       </c>
       <c r="K9">
-        <v>1.050705589273615</v>
+        <v>1.042937411886428</v>
       </c>
       <c r="L9">
-        <v>1.050148510704375</v>
+        <v>1.037493469423096</v>
       </c>
       <c r="M9">
-        <v>1.062149537855126</v>
+        <v>1.048873098023117</v>
       </c>
       <c r="N9">
-        <v>1.018436739041297</v>
+        <v>1.015089411545752</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036568673408371</v>
+        <v>1.002724828374683</v>
       </c>
       <c r="D10">
-        <v>1.046648848754015</v>
+        <v>1.02591308919684</v>
       </c>
       <c r="E10">
-        <v>1.045990399300621</v>
+        <v>1.020061658633586</v>
       </c>
       <c r="F10">
-        <v>1.057943604562121</v>
+        <v>1.031222474443479</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04199170240934</v>
+        <v>1.047375041344768</v>
       </c>
       <c r="J10">
-        <v>1.042896654404075</v>
+        <v>1.030830752832079</v>
       </c>
       <c r="K10">
-        <v>1.050056826772403</v>
+        <v>1.039829723111127</v>
       </c>
       <c r="L10">
-        <v>1.04940067903067</v>
+        <v>1.034077900804416</v>
       </c>
       <c r="M10">
-        <v>1.061312590707715</v>
+        <v>1.045049987472792</v>
       </c>
       <c r="N10">
-        <v>1.018222024688316</v>
+        <v>1.014067991128625</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036058364071075</v>
+        <v>1.000117332729081</v>
       </c>
       <c r="D11">
-        <v>1.046246464475223</v>
+        <v>1.02396814673904</v>
       </c>
       <c r="E11">
-        <v>1.045545337776615</v>
+        <v>1.01797616741725</v>
       </c>
       <c r="F11">
-        <v>1.057461481659481</v>
+        <v>1.028963153409269</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041875013390717</v>
+        <v>1.046631409332868</v>
       </c>
       <c r="J11">
-        <v>1.042619123156066</v>
+        <v>1.02948523133711</v>
       </c>
       <c r="K11">
-        <v>1.04977599373584</v>
+        <v>1.038451784716671</v>
       </c>
       <c r="L11">
-        <v>1.049077412170721</v>
+        <v>1.032566859363746</v>
       </c>
       <c r="M11">
-        <v>1.060950805744179</v>
+        <v>1.04335878402431</v>
       </c>
       <c r="N11">
-        <v>1.018129078394088</v>
+        <v>1.013615161644523</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035868973484289</v>
+        <v>0.9991397830360119</v>
       </c>
       <c r="D12">
-        <v>1.046097146417785</v>
+        <v>1.023239833868853</v>
       </c>
       <c r="E12">
-        <v>1.045380234603417</v>
+        <v>1.017195582163959</v>
       </c>
       <c r="F12">
-        <v>1.057282620667436</v>
+        <v>1.028117386356497</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041831537714805</v>
+        <v>1.046351416498208</v>
       </c>
       <c r="J12">
-        <v>1.042516064577004</v>
+        <v>1.028980593459727</v>
       </c>
       <c r="K12">
-        <v>1.049671694209858</v>
+        <v>1.037934940150536</v>
       </c>
       <c r="L12">
-        <v>1.048957420635259</v>
+        <v>1.032000594070398</v>
       </c>
       <c r="M12">
-        <v>1.060816517512835</v>
+        <v>1.042725024748967</v>
       </c>
       <c r="N12">
-        <v>1.018094558492834</v>
+        <v>1.01344532127902</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035909591088219</v>
+        <v>0.9993498847302241</v>
       </c>
       <c r="D13">
-        <v>1.046129169035514</v>
+        <v>1.023396328841523</v>
       </c>
       <c r="E13">
-        <v>1.045415640143688</v>
+        <v>1.017363293022666</v>
       </c>
       <c r="F13">
-        <v>1.057320976922828</v>
+        <v>1.028299107089556</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041840869362929</v>
+        <v>1.046411648373328</v>
       </c>
       <c r="J13">
-        <v>1.042538169661903</v>
+        <v>1.029089062320277</v>
       </c>
       <c r="K13">
-        <v>1.049694066137403</v>
+        <v>1.038046034845809</v>
       </c>
       <c r="L13">
-        <v>1.048983155391442</v>
+        <v>1.032122288988282</v>
       </c>
       <c r="M13">
-        <v>1.060845318473939</v>
+        <v>1.042861223632682</v>
       </c>
       <c r="N13">
-        <v>1.018101962917289</v>
+        <v>1.013481827706071</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036042705689312</v>
+        <v>1.00003671420609</v>
       </c>
       <c r="D14">
-        <v>1.046234118820166</v>
+        <v>1.023908065284025</v>
       </c>
       <c r="E14">
-        <v>1.045531685949386</v>
+        <v>1.017911766564545</v>
       </c>
       <c r="F14">
-        <v>1.057446692433886</v>
+        <v>1.028893377266241</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041871422369398</v>
+        <v>1.046608342632074</v>
       </c>
       <c r="J14">
-        <v>1.042610603704233</v>
+        <v>1.029443617778712</v>
       </c>
       <c r="K14">
-        <v>1.049767372002506</v>
+        <v>1.038409165515195</v>
       </c>
       <c r="L14">
-        <v>1.049067491906337</v>
+        <v>1.032520154699662</v>
       </c>
       <c r="M14">
-        <v>1.060939703492168</v>
+        <v>1.043306512103811</v>
       </c>
       <c r="N14">
-        <v>1.018126224873672</v>
+        <v>1.013601156354735</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036124743387334</v>
+        <v>1.000458687058202</v>
       </c>
       <c r="D15">
-        <v>1.046298801173334</v>
+        <v>1.02422257797694</v>
       </c>
       <c r="E15">
-        <v>1.045603213823024</v>
+        <v>1.018248904888082</v>
       </c>
       <c r="F15">
-        <v>1.057524179253253</v>
+        <v>1.029258650373984</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04189022959488</v>
+        <v>1.046729029216616</v>
       </c>
       <c r="J15">
-        <v>1.042655236578739</v>
+        <v>1.029661423088488</v>
       </c>
       <c r="K15">
-        <v>1.04981254011521</v>
+        <v>1.038632232416301</v>
       </c>
       <c r="L15">
-        <v>1.049119465619555</v>
+        <v>1.0327646252445</v>
       </c>
       <c r="M15">
-        <v>1.060997869836293</v>
+        <v>1.043580124764838</v>
       </c>
       <c r="N15">
-        <v>1.018141174076335</v>
+        <v>1.013674459763897</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036602563426021</v>
+        <v>1.002896636874944</v>
       </c>
       <c r="D16">
-        <v>1.046675573945551</v>
+        <v>1.026041356758384</v>
       </c>
       <c r="E16">
-        <v>1.046019966247435</v>
+        <v>1.020199245603247</v>
       </c>
       <c r="F16">
-        <v>1.057975632324299</v>
+        <v>1.031371513174821</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04199942809351</v>
+        <v>1.047423869932052</v>
       </c>
       <c r="J16">
-        <v>1.042915077210483</v>
+        <v>1.030919379749195</v>
       </c>
       <c r="K16">
-        <v>1.05007546666675</v>
+        <v>1.039920478088221</v>
       </c>
       <c r="L16">
-        <v>1.04942214490007</v>
+        <v>1.034177492822702</v>
       </c>
       <c r="M16">
-        <v>1.06133661437813</v>
+        <v>1.045161456838481</v>
       </c>
       <c r="N16">
-        <v>1.018228193829072</v>
+        <v>1.014097817100006</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03690257203166</v>
+        <v>1.004410253722386</v>
       </c>
       <c r="D17">
-        <v>1.046912170359828</v>
+        <v>1.027171993254801</v>
       </c>
       <c r="E17">
-        <v>1.046281760347851</v>
+        <v>1.021412307766741</v>
       </c>
       <c r="F17">
-        <v>1.058259208082637</v>
+        <v>1.032685453064832</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04206768898971</v>
+        <v>1.047853106370545</v>
       </c>
       <c r="J17">
-        <v>1.043078118295617</v>
+        <v>1.031700001028321</v>
       </c>
       <c r="K17">
-        <v>1.050240417497093</v>
+        <v>1.040719801448589</v>
       </c>
       <c r="L17">
-        <v>1.049612155822367</v>
+        <v>1.035055036368482</v>
       </c>
       <c r="M17">
-        <v>1.061549266832735</v>
+        <v>1.046143671763962</v>
       </c>
       <c r="N17">
-        <v>1.018282786465549</v>
+        <v>1.014360516334677</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037077663919475</v>
+        <v>1.005287602603647</v>
       </c>
       <c r="D18">
-        <v>1.047050264919352</v>
+        <v>1.0278278539314</v>
       </c>
       <c r="E18">
-        <v>1.046434595332744</v>
+        <v>1.022116215444531</v>
       </c>
       <c r="F18">
-        <v>1.058424753247759</v>
+        <v>1.033447823544245</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042107418940889</v>
+        <v>1.048101118936646</v>
       </c>
       <c r="J18">
-        <v>1.043173234930247</v>
+        <v>1.032152328298918</v>
       </c>
       <c r="K18">
-        <v>1.050336638663314</v>
+        <v>1.041182929487345</v>
       </c>
       <c r="L18">
-        <v>1.04972303885622</v>
+        <v>1.035563810110954</v>
       </c>
       <c r="M18">
-        <v>1.06167336297993</v>
+        <v>1.04671314348386</v>
       </c>
       <c r="N18">
-        <v>1.018314631942846</v>
+        <v>1.014512730489405</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037137382956986</v>
+        <v>1.005585831013066</v>
       </c>
       <c r="D19">
-        <v>1.047097367114864</v>
+        <v>1.028050877703481</v>
       </c>
       <c r="E19">
-        <v>1.046486730930374</v>
+        <v>1.02235561733268</v>
       </c>
       <c r="F19">
-        <v>1.058481223584189</v>
+        <v>1.033707096402651</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04212095130436</v>
+        <v>1.048185288488759</v>
       </c>
       <c r="J19">
-        <v>1.04320567017387</v>
+        <v>1.032306057010673</v>
       </c>
       <c r="K19">
-        <v>1.050369448927943</v>
+        <v>1.041340322630803</v>
       </c>
       <c r="L19">
-        <v>1.049760856023711</v>
+        <v>1.035736771210935</v>
       </c>
       <c r="M19">
-        <v>1.061715686606263</v>
+        <v>1.046906741358649</v>
       </c>
       <c r="N19">
-        <v>1.018325490838616</v>
+        <v>1.01456446122754</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036870373388088</v>
+        <v>1.004248430390464</v>
       </c>
       <c r="D20">
-        <v>1.046886776285589</v>
+        <v>1.027051062653485</v>
       </c>
       <c r="E20">
-        <v>1.046253658347781</v>
+        <v>1.021282536945979</v>
       </c>
       <c r="F20">
-        <v>1.058228768566753</v>
+        <v>1.032544898227475</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042060374076647</v>
+        <v>1.047807297524903</v>
       </c>
       <c r="J20">
-        <v>1.043060623706795</v>
+        <v>1.031616558821431</v>
       </c>
       <c r="K20">
-        <v>1.05022271898129</v>
+        <v>1.040634363825426</v>
       </c>
       <c r="L20">
-        <v>1.049591763967304</v>
+        <v>1.034961204352807</v>
       </c>
       <c r="M20">
-        <v>1.061526445062024</v>
+        <v>1.046038646359784</v>
       </c>
       <c r="N20">
-        <v>1.018276928928324</v>
+        <v>1.014332436447963</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036003502295453</v>
+        <v>0.9998347118766039</v>
       </c>
       <c r="D21">
-        <v>1.046203209694327</v>
+        <v>1.023757535595421</v>
       </c>
       <c r="E21">
-        <v>1.045497507468578</v>
+        <v>1.017750420686854</v>
       </c>
       <c r="F21">
-        <v>1.05740966623204</v>
+        <v>1.028718562554435</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041862428912631</v>
+        <v>1.046550526097959</v>
       </c>
       <c r="J21">
-        <v>1.042589272875251</v>
+        <v>1.029339345344579</v>
       </c>
       <c r="K21">
-        <v>1.049745784843378</v>
+        <v>1.038302372449069</v>
       </c>
       <c r="L21">
-        <v>1.049042654567912</v>
+        <v>1.032403132585668</v>
       </c>
       <c r="M21">
-        <v>1.060911906824536</v>
+        <v>1.04317554116426</v>
       </c>
       <c r="N21">
-        <v>1.018119080204097</v>
+        <v>1.013566062748655</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035459398685597</v>
+        <v>0.9970073036102498</v>
       </c>
       <c r="D22">
-        <v>1.045774266408736</v>
+        <v>1.021652661966611</v>
       </c>
       <c r="E22">
-        <v>1.045023315898947</v>
+        <v>1.015495143878857</v>
       </c>
       <c r="F22">
-        <v>1.056895943414981</v>
+        <v>1.026274735457689</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041737208596648</v>
+        <v>1.045738451509509</v>
       </c>
       <c r="J22">
-        <v>1.042293083722835</v>
+        <v>1.027879413330511</v>
       </c>
       <c r="K22">
-        <v>1.049446001309123</v>
+        <v>1.03680704241927</v>
       </c>
       <c r="L22">
-        <v>1.048697895495111</v>
+        <v>1.030765764300847</v>
       </c>
       <c r="M22">
-        <v>1.060526071721017</v>
+        <v>1.041343056514059</v>
       </c>
       <c r="N22">
-        <v>1.018019860685205</v>
+        <v>1.013074699374716</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035747749208238</v>
+        <v>0.9985112571533454</v>
       </c>
       <c r="D23">
-        <v>1.0460015768321</v>
+        <v>1.022771801978278</v>
       </c>
       <c r="E23">
-        <v>1.045274576455647</v>
+        <v>1.016694058562633</v>
       </c>
       <c r="F23">
-        <v>1.057168155555972</v>
+        <v>1.027573950028886</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04180366242861</v>
+        <v>1.046171057129194</v>
       </c>
       <c r="J23">
-        <v>1.042450082808333</v>
+        <v>1.028656078264291</v>
       </c>
       <c r="K23">
-        <v>1.049604913768463</v>
+        <v>1.037602562471911</v>
       </c>
       <c r="L23">
-        <v>1.048880612010956</v>
+        <v>1.031636575489758</v>
       </c>
       <c r="M23">
-        <v>1.060730557503764</v>
+        <v>1.042317624723345</v>
       </c>
       <c r="N23">
-        <v>1.018072456169228</v>
+        <v>1.013336101188314</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036884922254434</v>
+        <v>1.00432156841477</v>
       </c>
       <c r="D24">
-        <v>1.046898250491078</v>
+        <v>1.027105717160311</v>
       </c>
       <c r="E24">
-        <v>1.046266356015413</v>
+        <v>1.021341186060508</v>
       </c>
       <c r="F24">
-        <v>1.058242522440784</v>
+        <v>1.032608421339752</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042063679635208</v>
+        <v>1.047828003837331</v>
       </c>
       <c r="J24">
-        <v>1.043068528704475</v>
+        <v>1.031654272009469</v>
       </c>
       <c r="K24">
-        <v>1.050230716153823</v>
+        <v>1.040672978989625</v>
       </c>
       <c r="L24">
-        <v>1.049600978005694</v>
+        <v>1.035003612515349</v>
       </c>
       <c r="M24">
-        <v>1.061536757054057</v>
+        <v>1.04608611342874</v>
       </c>
       <c r="N24">
-        <v>1.018279575689557</v>
+        <v>1.014345127669401</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038208539871805</v>
+        <v>1.010848818115545</v>
       </c>
       <c r="D25">
-        <v>1.047942386781917</v>
+        <v>1.031993635768112</v>
       </c>
       <c r="E25">
-        <v>1.047422545534639</v>
+        <v>1.026591427863353</v>
       </c>
       <c r="F25">
-        <v>1.059494757634907</v>
+        <v>1.038293420615245</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042362059141707</v>
+        <v>1.049658773481345</v>
       </c>
       <c r="J25">
-        <v>1.04378688312838</v>
+        <v>1.035016512158847</v>
       </c>
       <c r="K25">
-        <v>1.050957238654911</v>
+        <v>1.04411479360311</v>
       </c>
       <c r="L25">
-        <v>1.050438990922091</v>
+        <v>1.038790508532386</v>
       </c>
       <c r="M25">
-        <v>1.062474636758461</v>
+        <v>1.050325003212859</v>
       </c>
       <c r="N25">
-        <v>1.018520023185612</v>
+        <v>1.015476446109663</v>
       </c>
     </row>
   </sheetData>
